--- a/biology/Botanique/Ananas_ananassoides/Ananas_ananassoides.xlsx
+++ b/biology/Botanique/Ananas_ananassoides/Ananas_ananassoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ananas ananassoides est une espèce de plantes de la famille des Bromeliaceae.
 </t>
@@ -511,13 +523,15 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Acanthostachys ananassoides Baker[1] ;
-Ananas genesio-linsii Reitz[1] ;
-Ananas guaraniticus Bertoni[1] ;
-Ananas microstachys Lindm. [non-légitime][1] ;
-Ananas nanus (L.B.Sm.) L.B.Sm.[1] ;</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Acanthostachys ananassoides Baker ;
+Ananas genesio-linsii Reitz ;
+Ananas guaraniticus Bertoni ;
+Ananas microstachys Lindm. [non-légitime] ;
+Ananas nanus (L.B.Sm.) L.B.Sm. ;</t>
         </is>
       </c>
     </row>
@@ -545,9 +559,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est largement répandue de l'Amérique centrale à l'Amérique du Sud, du Costa Rica à l'Argentine[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est largement répandue de l'Amérique centrale à l'Amérique du Sud, du Costa Rica à l'Argentine.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est hémicryptophyte[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est hémicryptophyte.
 </t>
         </is>
       </c>
